--- a/biology/Zoologie/Hippasosa/Hippasosa.xlsx
+++ b/biology/Zoologie/Hippasosa/Hippasosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippasosa est un genre d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippasosa est un genre d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique et dans le Sud de l'Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique et dans le Sud de l'Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 23/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 23/03/2024) :
 Hippasosa dewinterae (Alderweireldt, 1996)
 Hippasosa discrepans (Roewer, 1960)
 Hippasosa fera (Strand, 1908)
@@ -583,9 +599,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Roewer en 1960 dans les Lycosidae. Il est placé en synonymie avec Ocyale par Alderweireldt et Jocqué en 2005[2]. Il est relevé de synonymie par Sherwood en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Roewer en 1960 dans les Lycosidae. Il est placé en synonymie avec Ocyale par Alderweireldt et Jocqué en 2005. Il est relevé de synonymie par Sherwood en 2022.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1960 : « Araneae Lycosaeformia II (Lycosidae). » Exploration du Parc National de l'Upemba Mission G.F. de Witte, vol. 55, p. 519-1040.</t>
         </is>
